--- a/ETL/clean_data/proyecto_asistencia.xlsx
+++ b/ETL/clean_data/proyecto_asistencia.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,22 +1006,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cristian Fernando Becerra Guerrero</t>
+          <t>Daniel Andres Cardenas Arevalo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cristian.becerra08@uptc.edu.co</t>
+          <t>daniel.cardenas01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Transmisión de Datos</t>
+          <t>Electiva III</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1061,29 +1061,29 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Daniel Andres Cardenas Arevalo</t>
+          <t>Danna Karina Sanabria García</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>daniel.cardenas01@uptc.edu.co</t>
+          <t>danna.sanabria@uptc.edu.co</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Electiva III</t>
+          <t>Transmisión de Datos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1130,12 +1130,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Danna Karina Sanabria García</t>
+          <t>David Santiago Rivera Orjuela</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>danna.sanabria@uptc.edu.co</t>
+          <t>david.rivera04@uptc.edu.co</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1170,12 +1170,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1192,17 +1192,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>David Santiago Rivera Orjuela</t>
+          <t>Diego Humberto Bayona Ravelo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>david.rivera04@uptc.edu.co</t>
+          <t>diego.bayona01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Transmisión de Datos</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1227,17 +1227,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1254,17 +1254,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>David Santiago Rivera Orjuela</t>
+          <t>Diego Alejandro Rubiano Buitrago</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>david.rivera04@uptc.edu.co</t>
+          <t>diego.rubiano01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Transmisión de Datos</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1274,12 +1274,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1309,24 +1309,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Diego Humberto Bayona Ravelo</t>
+          <t>Diego Mauricio Sierra Maestre</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>diego.bayona01@uptc.edu.co</t>
+          <t>diego.sierra03@uptc.edu.co</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Transmisión de Datos</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1366,24 +1366,24 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Diego Alejandro Rubiano Buitrago</t>
+          <t>Diomer Alfonso Sandoval Alarcón</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>diego.rubiano01@uptc.edu.co</t>
+          <t>diomer.sandoval@uptc.edu.co</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1418,34 +1418,34 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Diego Mauricio Sierra Maestre</t>
+          <t>Eduard Esteban Ruiz Medina</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>diego.sierra03@uptc.edu.co</t>
+          <t>eduard.ruiz01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1480,34 +1480,34 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Diomer Alfonso Sandoval Alarcón</t>
+          <t>Edward Geovanny Sosa Amaya</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>diomer.sandoval@uptc.edu.co</t>
+          <t>edward.sosa@uptc.edu.co</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1564,17 +1564,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Eduard Esteban Ruiz Medina</t>
+          <t>Edwin Camilo Becerra Meche</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>eduard.ruiz01@uptc.edu.co</t>
+          <t>edwin.becerra03@uptc.edu.co</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Transmisión de Datos</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1626,17 +1626,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Edward Geovanny Sosa Amaya</t>
+          <t>Edwin Steven Niño Torres</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>edward.sosa@uptc.edu.co</t>
+          <t>edwin.nino04@uptc.edu.co</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Transmisión de Datos</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1651,54 +1651,54 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Edwin Camilo Becerra Meche</t>
+          <t>Emerson Daniel Bautista Castillo</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>edwin.becerra03@uptc.edu.co</t>
+          <t>emerson.bautista@uptc.edu.co</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Transmisión de Datos</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1750,12 +1750,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Edwin Steven Niño Torres</t>
+          <t>Erik Leonardo Molina Fonseca</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>edwin.nino04@uptc.edu.co</t>
+          <t>erik.molina01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1800,24 +1800,24 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Emerson Daniel Bautista Castillo</t>
+          <t>Esteban Dario Rincón Balaguera</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>emerson.bautista@uptc.edu.co</t>
+          <t>esteban.rincon@uptc.edu.co</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1874,17 +1874,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Erik Leonardo Molina Fonseca</t>
+          <t>Gabrile Fernando Castillo Mendieta</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>erik.molina01@uptc.edu.co</t>
+          <t>gabriel.castillo03@uptc.edu.co</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Transmisión de Datos</t>
+          <t>Matemáticas discretas</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1899,22 +1899,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1936,12 +1936,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Esteban Dario Rincón Balaguera</t>
+          <t>Hawer Esenider Gualdron Vivas</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>esteban.rincon@uptc.edu.co</t>
+          <t>hawer.gualdron@uptc.edu.co</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1998,17 +1998,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Gabrile Fernando Castillo Mendieta</t>
+          <t>Jeimmy Katherine Cupa Martínez</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>gabriel.castillo03@uptc.edu.co</t>
+          <t>jeimmy.cupa@uptc.edu.co</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Matemáticas discretas</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2038,12 +2038,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2053,24 +2053,24 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hawer Esenider Gualdron Vivas</t>
+          <t>Jeison Daniel Rubiano Hurtado</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>hawer.gualdron@uptc.edu.co</t>
+          <t>jeison.rubiano02@uptc.edu.co</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Transmisión de Datos</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2095,39 +2095,39 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jeimmy Katherine Cupa Martínez</t>
+          <t>Jeisson Alexander Prieto Torres</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>jeimmy.cupa@uptc.edu.co</t>
+          <t>jeisson.prieto@uptc.edu.co</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2162,39 +2162,39 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Jeison Daniel Rubiano Hurtado</t>
+          <t>Jesús Leonardo Báez Fernández</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>jeison.rubiano02@uptc.edu.co</t>
+          <t>jesus.baez@uptc.edu.co</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Transmisión de Datos</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2229,44 +2229,44 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Jeisson Alexander Prieto Torres</t>
+          <t>Jharvey Leonardo Valderrama Sepulveda</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>jeisson.prieto@uptc.edu.co</t>
+          <t>jharvey.valderrama@uptc.edu.co</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Redes de datos</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2308,17 +2308,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Jesús Leonardo Báez Fernández</t>
+          <t>Jhon Fredy Camargo Fonseca</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>jesus.baez@uptc.edu.co</t>
+          <t>jhon.camargo01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Transmisión de Datos</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2370,17 +2370,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Jharvey Leonardo Valderrama Sepulveda</t>
+          <t>Jhonatan Andres Sierra Sosa</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>jharvey.valderrama@uptc.edu.co</t>
+          <t>jhonatan.sierra@uptc.edu.co</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Redes de datos</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2390,37 +2390,37 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2432,17 +2432,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Jhon Fredy Camargo Fonseca</t>
+          <t>Johana Patricia Avila Medina</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>jhon.camargo01@uptc.edu.co</t>
+          <t>johana.avila@uptc.edu.co</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Transmisión de Datos</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2494,27 +2494,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Jhonatan Andres Sierra Sosa</t>
+          <t>Jorge Steven Ayala Benitez</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>jhonatan.sierra@uptc.edu.co</t>
+          <t>jorge.ayala01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Arquitectura de Computadores</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2524,27 +2524,27 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2556,12 +2556,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Johana Patricia Avila Medina</t>
+          <t>Jose Alexander Romero Cardenas</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>johana.avila@uptc.edu.co</t>
+          <t>jose.romero07@uptc.edu.co</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2618,37 +2618,37 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Jorge Steven Ayala Benitez</t>
+          <t>Juan Pablo Archila Amaya</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>jorge.ayala01@uptc.edu.co</t>
+          <t>juan.archila04@uptc.edu.co</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Arquitectura de Computadores</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2658,39 +2658,39 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Jose Alexander Romero Cardenas</t>
+          <t>Juan David Carrillo Parra</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>jose.romero07@uptc.edu.co</t>
+          <t>juan.carrillo03@uptc.edu.co</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Transmisión de Datos</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2725,12 +2725,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2742,17 +2742,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Juan Pablo Archila Amaya</t>
+          <t>Juan Camilo Cepeda Carreño</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>juan.archila04@uptc.edu.co</t>
+          <t>juan.cepeda06@uptc.edu.co</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Transmisión de Datos</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2804,12 +2804,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Juan Pablo Archila Amaya</t>
+          <t>Juan Esteban González Bermúdez</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>juan.archila04@uptc.edu.co</t>
+          <t>juan.gonzalez37@uptc.edu.co</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2844,12 +2844,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2859,19 +2859,19 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Juan Pablo Archila Amaya</t>
+          <t>Juan Sebastian Martinez Noreña</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>juan.archila04@uptc.edu.co</t>
+          <t>juan.martinez30@uptc.edu.co</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2911,29 +2911,29 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Juan Pablo Archila Amaya</t>
+          <t>Julian Camilo Ayala Niño</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>juan.archila04@uptc.edu.co</t>
+          <t>julian.ayala@uptc.edu.co</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2983,24 +2983,24 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Juan David Carrillo Parra</t>
+          <t>Julian Fernando Obando Molina</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>juan.carrillo03@uptc.edu.co</t>
+          <t>julian.obando@uptc.edu.co</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Electiva III</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3015,32 +3015,32 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3052,22 +3052,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Juan Camilo Cepeda Carreño</t>
+          <t>Kevin Oswaldo Celis Gutiérrez</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>juan.cepeda06@uptc.edu.co</t>
+          <t>kevin.celis@uptc.edu.co</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Transmisión de Datos</t>
+          <t>Electiva III</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3077,27 +3077,27 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3107,19 +3107,19 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Juan Esteban González Bermúdez</t>
+          <t>Laura Vanesa Fernández Barreto</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>juan.gonzalez37@uptc.edu.co</t>
+          <t>laura.fernandez01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3159,29 +3159,29 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Juan Sebastian Martinez Noreña</t>
+          <t>Laura Daniela Vargas Jimenez</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>juan.martinez30@uptc.edu.co</t>
+          <t>laura.vargas30@uptc.edu.co</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3238,17 +3238,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Julian Camilo Ayala Niño</t>
+          <t>Liliana Andrea Hernández Zorro</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>julian.ayala@uptc.edu.co</t>
+          <t>liliana.hernandez01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Transmisión de Datos</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3293,24 +3293,24 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Julian Fernando Obando Molina</t>
+          <t>Luis Miguel Rodriguez Barreto</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>julian.obando@uptc.edu.co</t>
+          <t>luis.rodriguez32@uptc.edu.co</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Electiva III</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3325,32 +3325,32 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3362,22 +3362,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Kevin Oswaldo Celis Gutiérrez</t>
+          <t>Luis  Miguel Santiago Alvarez</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>kevin.celis@uptc.edu.co</t>
+          <t>luis.santiago@uptc.edu.co</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Electiva III</t>
+          <t>Transmisión de Datos</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3387,22 +3387,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3424,12 +3424,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Laura Vanesa Fernández Barreto</t>
+          <t>Manuel Fernando Silva Acero</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>laura.fernandez01@uptc.edu.co</t>
+          <t>manuel.silva@uptc.edu.co</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3459,12 +3459,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3479,24 +3479,24 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Laura Daniela Vargas Jimenez</t>
+          <t>Maria Paula Del Pilar Gómez Galindo</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>laura.vargas30@uptc.edu.co</t>
+          <t>maria.gomez18@uptc.edu.co</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Transmisión de Datos</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3548,17 +3548,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Liliana Andrea Hernández Zorro</t>
+          <t>María Fernanda Medina Mojica</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>liliana.hernandez01@uptc.edu.co</t>
+          <t>maria.medina10@uptc.edu.co</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Transmisión de Datos</t>
+          <t>Sistemas Operativos</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3578,44 +3578,44 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Liliana Andrea Hernández Zorro</t>
+          <t>Marlon Jhoan Rivera Coronel</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>liliana.hernandez01@uptc.edu.co</t>
+          <t>marlon.rivera@uptc.edu.co</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3640,49 +3640,49 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Luis Miguel Rodriguez Barreto</t>
+          <t>Miguel Ángel Chocontá Motavita</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>luis.rodriguez32@uptc.edu.co</t>
+          <t>miguel.choconta@uptc.edu.co</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Transmisión de Datos</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3727,24 +3727,24 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Luis Miguel Rodriguez Barreto</t>
+          <t>Miguel Angel Rubiano Contreras</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>luis.rodriguez32@uptc.edu.co</t>
+          <t>miguel.rubiano01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Transmisión de Datos</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3754,37 +3754,37 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3796,17 +3796,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Luis Miguel Rodriguez Barreto</t>
+          <t>Natalia Alejandra Africano Fino</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>luis.rodriguez32@uptc.edu.co</t>
+          <t>natalia.africano@uptc.edu.co</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Electiva III</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3821,32 +3821,32 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3858,17 +3858,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Luis Miguel Rodriguez Barreto</t>
+          <t>Nicolas Esteban Avella Molina</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>luis.rodriguez32@uptc.edu.co</t>
+          <t>nicolas.avella@uptc.edu.co</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Transmisión de Datos</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3878,37 +3878,37 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3920,17 +3920,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Luis  Miguel Santiago Alvarez</t>
+          <t>Oscar Santiago Garzón Tobaria</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>luis.santiago@uptc.edu.co</t>
+          <t>oscar.garzon03@uptc.edu.co</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Transmisión de Datos</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3950,27 +3950,27 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3982,12 +3982,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Manuel Fernando Silva Acero</t>
+          <t>Oscar Ivan Rojas Cuesta</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>manuel.silva@uptc.edu.co</t>
+          <t>oscar.rojas11@uptc.edu.co</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4017,17 +4017,17 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4044,17 +4044,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Maria Paula Del Pilar Gómez Galindo</t>
+          <t>Oscar Javier Sanabria Rodríguez</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>maria.gomez18@uptc.edu.co</t>
+          <t>oscar.sanabria06@uptc.edu.co</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Transmisión de Datos</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4069,12 +4069,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4084,12 +4084,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4106,17 +4106,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>María Fernanda Medina Mojica</t>
+          <t>César David Pérez Fonseca</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>maria.medina10@uptc.edu.co</t>
+          <t>perez.cesar@uptc.edu.co</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sistemas Operativos</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4146,12 +4146,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4168,12 +4168,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Marlon Jhoan Rivera Coronel</t>
+          <t>Pilar Andrea Corredor Corredor</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>marlon.rivera@uptc.edu.co</t>
+          <t>pilar.corredor@uptc.edu.co</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4198,49 +4198,49 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Miguel Ángel Chocontá Motavita</t>
+          <t>Santiago Andrés Orjuela López</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>miguel.choconta@uptc.edu.co</t>
+          <t>santiago.orjuela@uptc.edu.co</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Transmisión de Datos</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4280,29 +4280,29 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Miguel Ángel Chocontá Motavita</t>
+          <t>Santiago Vargas Martínez</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>miguel.choconta@uptc.edu.co</t>
+          <t>santiago.vargas01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Transmisión de Datos</t>
+          <t>Electiva III</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4322,44 +4322,44 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Miguel Ángel Chocontá Motavita</t>
+          <t>Sebastian Mauricio López Flores</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>miguel.choconta@uptc.edu.co</t>
+          <t>sebastian.lopez03@uptc.edu.co</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4379,22 +4379,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4409,24 +4409,24 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Miguel Ángel Chocontá Motavita</t>
+          <t>Sergio Alejandro Soto Pastrana</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>miguel.choconta@uptc.edu.co</t>
+          <t>sergio.soto@uptc.edu.co</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Transmisión de Datos</t>
+          <t>Electiva III</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4466,24 +4466,24 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Miguel Angel Rubiano Contreras</t>
+          <t>Sergio Andrés Valcárcel Riaño</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>miguel.rubiano01@uptc.edu.co</t>
+          <t>sergio.valcarcel@uptc.edu.co</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4528,7 +4528,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4540,12 +4540,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Natalia Alejandra Africano Fino</t>
+          <t>Thomas Arturo Sorza Sierra</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>natalia.africano@uptc.edu.co</t>
+          <t>thomas.sorza@uptc.edu.co</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4555,17 +4555,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4602,12 +4602,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Nicolas Esteban Avella Molina</t>
+          <t>Zarith Dorelly Gómez Vargas</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>nicolas.avella@uptc.edu.co</t>
+          <t>zarith.gomez@uptc.edu.co</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4622,784 +4622,40 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Oscar Santiago Garzón Tobaria</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>oscar.garzon03@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Comunicaciones</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Oscar Ivan Rojas Cuesta</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>oscar.rojas11@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Comunicaciones</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Oscar Javier Sanabria Rodríguez</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>oscar.sanabria06@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Comunicaciones</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>César David Pérez Fonseca</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>perez.cesar@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Comunicaciones</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Pilar Andrea Corredor Corredor</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>pilar.corredor@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Transmisión de Datos</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Santiago Andrés Orjuela López</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>santiago.orjuela@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Comunicaciones</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Santiago Vargas Martínez</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>santiago.vargas01@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Electiva III</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Sebastian Mauricio López Flores</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>sebastian.lopez03@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Transmisión de Datos</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Sergio Alejandro Soto Pastrana</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>sergio.soto@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Electiva III</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Sergio Andrés Valcárcel Riaño</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>sergio.valcarcel@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Transmisión de Datos</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Thomas Arturo Sorza Sierra</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>thomas.sorza@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Electiva III</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Zarith Dorelly Gómez Vargas</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>zarith.gomez@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Transmisión de Datos</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
         <is>
           <t>si</t>
         </is>
@@ -5931,7 +5187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6252,12 +5508,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Daniel Andrés Álvarez Dias</t>
+          <t>Daniel Santiago Torres López</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>daniel.alvarez04@uptc.edu.co</t>
+          <t>daniel.torres07@uptc.edu.co</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -6282,7 +5538,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6297,12 +5553,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -6314,12 +5570,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Daniel Santiago Torres López</t>
+          <t>Edwin Leandro Pinzón Castelblanco</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>daniel.torres07@uptc.edu.co</t>
+          <t>edwin.pinzon03@uptc.edu.co</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -6376,12 +5632,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Edwin Leandro Pinzón Castelblanco</t>
+          <t>Joel Mauricio Chaparro Fuentes</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>edwin.pinzon03@uptc.edu.co</t>
+          <t>joel.chaparro@uptc.edu.co</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -6421,7 +5677,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -6438,12 +5694,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Joel Mauricio Chaparro Fuentes</t>
+          <t>Jonathan David Coronado Peña</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>joel.chaparro@uptc.edu.co</t>
+          <t>jonathan.coronado@uptc.edu.co</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6488,7 +5744,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -6500,12 +5756,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jonathan David Coronado Peña</t>
+          <t>Juan Diego Paez Rodriguez</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jonathan.coronado@uptc.edu.co</t>
+          <t>juan.paez02@uptc.edu.co</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -6562,12 +5818,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Juan Diego Paez Rodriguez</t>
+          <t>Kevin Raul Gonzalez Castellanos</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>juan.paez02@uptc.edu.co</t>
+          <t>kevin.gonzalez01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6592,7 +5848,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -6607,7 +5863,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -6624,12 +5880,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kevin Raul Gonzalez Castellanos</t>
+          <t>Liceth Dayana Páez Jiménez</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>kevin.gonzalez01@uptc.edu.co</t>
+          <t>liceth.paez@uptc.edu.co</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -6649,7 +5905,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -6659,7 +5915,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -6686,12 +5942,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Liceth Dayana Páez Jiménez</t>
+          <t>Lizeth Tatiana Martínez Gil</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>liceth.paez@uptc.edu.co</t>
+          <t>lizeth.martinez06@uptc.edu.co</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -6701,7 +5957,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -6711,17 +5967,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -6731,12 +5987,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -6748,12 +6004,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lizeth Tatiana Martínez Gil</t>
+          <t>María Alejandra Bareño Ariza</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>lizeth.martinez06@uptc.edu.co</t>
+          <t>maria.bareno01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -6763,7 +6019,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -6778,7 +6034,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -6810,12 +6066,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>María Alejandra Bareño Ariza</t>
+          <t>Maria Paula Satizabal Siatama</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>maria.bareno01@uptc.edu.co</t>
+          <t>maria.satizabal@uptc.edu.co</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -6840,7 +6096,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -6872,12 +6128,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Maria Paula Satizabal Siatama</t>
+          <t>Santiago Andres Arias Reyes</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>maria.satizabal@uptc.edu.co</t>
+          <t>santiago.arias01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -6922,7 +6178,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -6934,12 +6190,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Santiago Andres Arias Reyes</t>
+          <t>Sebastián Leonardo Córdoba Cuadros</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>santiago.arias01@uptc.edu.co</t>
+          <t>sebastian.cordoba@uptc.edu.co</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -6979,7 +6235,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -6996,12 +6252,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sebastián Leonardo Córdoba Cuadros</t>
+          <t>Sergio Camilo Muñoz Acosta</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sebastian.cordoba@uptc.edu.co</t>
+          <t>sergio.munoz@uptc.edu.co</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -7026,7 +6282,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7041,7 +6297,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -7058,12 +6314,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sergio Camilo Muñoz Acosta</t>
+          <t>Yefferson Arley Nuñez Camacho</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>sergio.munoz@uptc.edu.co</t>
+          <t>yefferson.nunez@uptc.edu.co</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -7108,72 +6364,10 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Yefferson Arley Nuñez Camacho</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>yefferson.nunez@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Comunicaciones</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
         <is>
           <t>no</t>
         </is>
@@ -7975,7 +7169,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -8449,7 +7643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8708,12 +7902,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fabio Alonso Arias Adarme</t>
+          <t>Ingrid Ortiz</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ingfaaa@gmail.com</t>
+          <t>ingrid.ortiz05@uptc.edu.co</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -8723,12 +7917,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -8738,12 +7932,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -8753,29 +7947,29 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ingrid Ortiz</t>
+          <t>Jairo Alonso Mesa Lara</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ingrid.ortiz05@uptc.edu.co</t>
+          <t>jairo.mesa@uptc.edu.co</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -8795,7 +7989,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -8815,29 +8009,29 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jairo Alonso Mesa Lara</t>
+          <t>Jaraquesoler</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jairo.mesa@uptc.edu.co</t>
+          <t>jaraquesoler@gmail.com</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -8894,12 +8088,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jaraquesoler</t>
+          <t>Jeffer Ivan Figueroa Casas</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaraquesoler@gmail.com</t>
+          <t>jefferfigueroacasas@gmail.com</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -8909,17 +8103,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -8929,7 +8123,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -8956,12 +8150,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jeffer Ivan Figueroa Casas</t>
+          <t>Jenny Amparo Rosales Agredo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jefferfigueroacasas@gmail.com</t>
+          <t>jenny.rosales@uptc.edu.co</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -8996,34 +8190,34 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jenny Amparo Rosales Agredo</t>
+          <t>Leonardo Bernal Zamora</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jenny.rosales@uptc.edu.co</t>
+          <t>leonardo.bernal01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -9038,54 +8232,54 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Leonardo Bernal Zamora</t>
+          <t>Luz Santamaría Granados</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>leonardo.bernal01@uptc.edu.co</t>
+          <t>luz.santamaria@uptc.edu.co</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -9100,7 +8294,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -9115,7 +8309,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -9142,12 +8336,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Luz Santamaría Granados</t>
+          <t>Miguel Angel Mendoza Moreno</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>luz.santamaria@uptc.edu.co</t>
+          <t>miguel.mendoza@uptc.edu.co</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -9157,12 +8351,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -9177,7 +8371,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -9204,12 +8398,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Luz Santamaría Granados</t>
+          <t>Oscar Fernando Vera Cely</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>luz.santamaria@uptc.edu.co</t>
+          <t>oscar.vera@uptc.edu.co</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -9229,12 +8423,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -9244,12 +8438,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -9266,12 +8460,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Miguel Angel Mendoza Moreno</t>
+          <t>Natalia Rojas Sepulveda</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>miguel.mendoza@uptc.edu.co</t>
+          <t>rojasnatha21@gmail.com</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -9281,27 +8475,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -9316,7 +8510,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -9328,12 +8522,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Oscar Fernando Vera Cely</t>
+          <t>Jorge Mojica</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>oscar.vera@uptc.edu.co</t>
+          <t>telematica@boyaca.gov.co</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -9358,22 +8552,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -9382,192 +8576,6 @@
         </is>
       </c>
       <c r="L15" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Natalia Rojas Sepulveda</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>rojasnatha21@gmail.com</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Profesionales</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Natalia Rojas Sepulveda</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>rojasnatha21@gmail.com</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Profesionales</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Jorge Mojica</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>telematica@boyaca.gov.co</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Profesionales</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
         <is>
           <t>no</t>
         </is>
@@ -10002,7 +9010,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -10223,7 +9231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11102,12 +10110,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Juan Pablo Archila Amaya</t>
+          <t>Juan David Carrillo Parra</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>juan.archila04@uptc.edu.co</t>
+          <t>juan.carrillo03@uptc.edu.co</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -11127,7 +10135,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -11137,7 +10145,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -11157,19 +10165,19 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Juan Pablo Archila Amaya</t>
+          <t>Juan Esteban González Bermúdez</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>juan.archila04@uptc.edu.co</t>
+          <t>juan.gonzalez37@uptc.edu.co</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -11179,7 +10187,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -11194,7 +10202,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -11204,12 +10212,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -11219,19 +10227,19 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Juan Pablo Archila Amaya</t>
+          <t>Juan Sebastian Martinez Noreña</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>juan.archila04@uptc.edu.co</t>
+          <t>juan.martinez30@uptc.edu.co</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -11241,7 +10249,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -11261,7 +10269,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -11271,29 +10279,29 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Juan David Carrillo Parra</t>
+          <t>Julian Camilo Ayala Niño</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>juan.carrillo03@uptc.edu.co</t>
+          <t>julian.ayala@uptc.edu.co</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -11323,7 +10331,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -11350,12 +10358,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Juan Esteban González Bermúdez</t>
+          <t>Laura Vanesa Fernández Barreto</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>juan.gonzalez37@uptc.edu.co</t>
+          <t>laura.fernandez01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -11365,7 +10373,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -11375,7 +10383,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -11395,29 +10403,29 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Juan Sebastian Martinez Noreña</t>
+          <t>Laura Daniela Vargas Jimenez</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>juan.martinez30@uptc.edu.co</t>
+          <t>laura.vargas30@uptc.edu.co</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -11427,7 +10435,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -11437,7 +10445,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -11447,7 +10455,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -11474,12 +10482,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Julian Camilo Ayala Niño</t>
+          <t>Luis Miguel Rodriguez Barreto</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>julian.ayala@uptc.edu.co</t>
+          <t>luis.rodriguez32@uptc.edu.co</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -11509,7 +10517,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -11536,12 +10544,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Laura Vanesa Fernández Barreto</t>
+          <t>Manuel Fernando Silva Acero</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>laura.fernandez01@uptc.edu.co</t>
+          <t>manuel.silva@uptc.edu.co</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -11571,12 +10579,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -11591,19 +10599,19 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Laura Daniela Vargas Jimenez</t>
+          <t>Oscar Santiago Garzón Tobaria</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>laura.vargas30@uptc.edu.co</t>
+          <t>oscar.garzon03@uptc.edu.co</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -11628,7 +10636,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -11638,12 +10646,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -11660,12 +10668,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Luis Miguel Rodriguez Barreto</t>
+          <t>Oscar Ivan Rojas Cuesta</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>luis.rodriguez32@uptc.edu.co</t>
+          <t>oscar.rojas11@uptc.edu.co</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -11675,7 +10683,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -11690,27 +10698,27 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -11722,12 +10730,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Luis Miguel Rodriguez Barreto</t>
+          <t>Oscar Javier Sanabria Rodríguez</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>luis.rodriguez32@uptc.edu.co</t>
+          <t>oscar.sanabria06@uptc.edu.co</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -11747,7 +10755,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -11757,7 +10765,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -11772,7 +10780,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -11784,12 +10792,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Luis Miguel Rodriguez Barreto</t>
+          <t>César David Pérez Fonseca</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>luis.rodriguez32@uptc.edu.co</t>
+          <t>perez.cesar@uptc.edu.co</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -11809,17 +10817,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -11834,7 +10842,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -11846,12 +10854,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Luis Miguel Rodriguez Barreto</t>
+          <t>Santiago Andrés Orjuela López</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>luis.rodriguez32@uptc.edu.co</t>
+          <t>santiago.orjuela@uptc.edu.co</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -11871,7 +10879,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -11881,7 +10889,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -11896,382 +10904,10 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Manuel Fernando Silva Acero</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>manuel.silva@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Comunicaciones</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Oscar Santiago Garzón Tobaria</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>oscar.garzon03@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Comunicaciones</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Oscar Ivan Rojas Cuesta</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>oscar.rojas11@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Comunicaciones</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Oscar Javier Sanabria Rodríguez</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>oscar.sanabria06@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Comunicaciones</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>César David Pérez Fonseca</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>perez.cesar@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Comunicaciones</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Santiago Andrés Orjuela López</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>santiago.orjuela@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Comunicaciones</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
         <is>
           <t>no</t>
         </is>
@@ -12288,7 +10924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12547,12 +11183,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cristian Fernando Becerra Guerrero</t>
+          <t>Danna Karina Sanabria García</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cristian.becerra08@uptc.edu.co</t>
+          <t>danna.sanabria@uptc.edu.co</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -12592,29 +11228,29 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Danna Karina Sanabria García</t>
+          <t>David Santiago Rivera Orjuela</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>danna.sanabria@uptc.edu.co</t>
+          <t>david.rivera04@uptc.edu.co</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -12629,7 +11265,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -12649,12 +11285,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -12671,12 +11307,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>David Santiago Rivera Orjuela</t>
+          <t>Diego Mauricio Sierra Maestre</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>david.rivera04@uptc.edu.co</t>
+          <t>diego.sierra03@uptc.edu.co</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -12691,7 +11327,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -12711,34 +11347,34 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>David Santiago Rivera Orjuela</t>
+          <t>Eduard Esteban Ruiz Medina</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>david.rivera04@uptc.edu.co</t>
+          <t>eduard.ruiz01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -12753,7 +11389,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -12795,12 +11431,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Diego Mauricio Sierra Maestre</t>
+          <t>Edwin Steven Niño Torres</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>diego.sierra03@uptc.edu.co</t>
+          <t>edwin.nino04@uptc.edu.co</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -12840,7 +11476,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -12857,12 +11493,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Eduard Esteban Ruiz Medina</t>
+          <t>Emerson Daniel Bautista Castillo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>eduard.ruiz01@uptc.edu.co</t>
+          <t>emerson.bautista@uptc.edu.co</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -12907,7 +11543,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -12919,12 +11555,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Edwin Steven Niño Torres</t>
+          <t>Erik Leonardo Molina Fonseca</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>edwin.nino04@uptc.edu.co</t>
+          <t>erik.molina01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -12969,24 +11605,24 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Emerson Daniel Bautista Castillo</t>
+          <t>Esteban Dario Rincón Balaguera</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>emerson.bautista@uptc.edu.co</t>
+          <t>esteban.rincon@uptc.edu.co</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -13021,7 +11657,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -13031,7 +11667,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -13043,12 +11679,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Erik Leonardo Molina Fonseca</t>
+          <t>Hawer Esenider Gualdron Vivas</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>erik.molina01@uptc.edu.co</t>
+          <t>hawer.gualdron@uptc.edu.co</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -13083,7 +11719,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -13105,12 +11741,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Esteban Dario Rincón Balaguera</t>
+          <t>Jesús Leonardo Báez Fernández</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>esteban.rincon@uptc.edu.co</t>
+          <t>jesus.baez@uptc.edu.co</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -13167,12 +11803,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hawer Esenider Gualdron Vivas</t>
+          <t>Johana Patricia Avila Medina</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>hawer.gualdron@uptc.edu.co</t>
+          <t>johana.avila@uptc.edu.co</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -13217,7 +11853,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -13229,12 +11865,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jesús Leonardo Báez Fernández</t>
+          <t>Jose Alexander Romero Cardenas</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jesus.baez@uptc.edu.co</t>
+          <t>jose.romero07@uptc.edu.co</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -13291,12 +11927,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Johana Patricia Avila Medina</t>
+          <t>Juan Camilo Cepeda Carreño</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>johana.avila@uptc.edu.co</t>
+          <t>juan.cepeda06@uptc.edu.co</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -13331,34 +11967,34 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jose Alexander Romero Cardenas</t>
+          <t>Liliana Andrea Hernández Zorro</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jose.romero07@uptc.edu.co</t>
+          <t>liliana.hernandez01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -13398,29 +12034,29 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Juan Camilo Cepeda Carreño</t>
+          <t>Luis  Miguel Santiago Alvarez</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>juan.cepeda06@uptc.edu.co</t>
+          <t>luis.santiago@uptc.edu.co</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -13460,29 +12096,29 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Liliana Andrea Hernández Zorro</t>
+          <t>Maria Paula Del Pilar Gómez Galindo</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>liliana.hernandez01@uptc.edu.co</t>
+          <t>maria.gomez18@uptc.edu.co</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -13507,44 +12143,44 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Liliana Andrea Hernández Zorro</t>
+          <t>Marlon Jhoan Rivera Coronel</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>liliana.hernandez01@uptc.edu.co</t>
+          <t>marlon.rivera@uptc.edu.co</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -13569,44 +12205,44 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Luis  Miguel Santiago Alvarez</t>
+          <t>Miguel Ángel Chocontá Motavita</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>luis.santiago@uptc.edu.co</t>
+          <t>miguel.choconta@uptc.edu.co</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -13646,7 +12282,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -13656,19 +12292,19 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Maria Paula Del Pilar Gómez Galindo</t>
+          <t>Miguel Angel Rubiano Contreras</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>maria.gomez18@uptc.edu.co</t>
+          <t>miguel.rubiano01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -13683,12 +12319,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -13725,12 +12361,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Marlon Jhoan Rivera Coronel</t>
+          <t>Nicolas Esteban Avella Molina</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>marlon.rivera@uptc.edu.co</t>
+          <t>nicolas.avella@uptc.edu.co</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -13745,12 +12381,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -13787,12 +12423,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Miguel Ángel Chocontá Motavita</t>
+          <t>Pilar Andrea Corredor Corredor</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>miguel.choconta@uptc.edu.co</t>
+          <t>pilar.corredor@uptc.edu.co</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -13849,12 +12485,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Miguel Ángel Chocontá Motavita</t>
+          <t>Sebastian Mauricio López Flores</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>miguel.choconta@uptc.edu.co</t>
+          <t>sebastian.lopez03@uptc.edu.co</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -13874,22 +12510,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -13904,19 +12540,19 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Miguel Ángel Chocontá Motavita</t>
+          <t>Sergio Andrés Valcárcel Riaño</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>miguel.choconta@uptc.edu.co</t>
+          <t>sergio.valcarcel@uptc.edu.co</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -13941,12 +12577,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -13956,7 +12592,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -13966,19 +12602,19 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Miguel Ángel Chocontá Motavita</t>
+          <t>Zarith Dorelly Gómez Vargas</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>miguel.choconta@uptc.edu.co</t>
+          <t>zarith.gomez@uptc.edu.co</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -14027,378 +12663,6 @@
         </is>
       </c>
       <c r="L28" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Miguel Angel Rubiano Contreras</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>miguel.rubiano01@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Transmisión de Datos</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Nicolas Esteban Avella Molina</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>nicolas.avella@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Transmisión de Datos</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Pilar Andrea Corredor Corredor</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>pilar.corredor@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Transmisión de Datos</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Sebastian Mauricio López Flores</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>sebastian.lopez03@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Transmisión de Datos</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Sergio Andrés Valcárcel Riaño</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>sergio.valcarcel@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Transmisión de Datos</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Zarith Dorelly Gómez Vargas</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>zarith.gomez@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Transmisión de Datos</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>si</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
         <is>
           <t>si</t>
         </is>
@@ -15049,7 +13313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15742,12 +14006,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Daniel Andrés Álvarez Dias</t>
+          <t>Daniel Santiago Torres López</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>daniel.alvarez04@uptc.edu.co</t>
+          <t>daniel.torres07@uptc.edu.co</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -15772,7 +14036,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -15787,12 +14051,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -15804,17 +14068,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Daniel Santiago Torres López</t>
+          <t>Diego Enrique Becerra Ramos</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>daniel.torres07@uptc.edu.co</t>
+          <t>diego.becerra04@uptc.edu.co</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Telemática</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -15824,27 +14088,27 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -15854,7 +14118,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -15866,12 +14130,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Diego Enrique Becerra Ramos</t>
+          <t>Edinson Esneider Ruiz Mosquera</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>diego.becerra04@uptc.edu.co</t>
+          <t>edinson.ruiz@uptc.edu.co</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -15886,7 +14150,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -15896,7 +14160,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -15928,12 +14192,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Edinson Esneider Ruiz Mosquera</t>
+          <t>Edirson Adrian Correa Medina</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>edinson.ruiz@uptc.edu.co</t>
+          <t>edirson.correa@uptc.edu.co</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -15953,17 +14217,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -15990,17 +14254,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Edirson Adrian Correa Medina</t>
+          <t>Edwin Leandro Pinzón Castelblanco</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>edirson.correa@uptc.edu.co</t>
+          <t>edwin.pinzon03@uptc.edu.co</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Telemática</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -16020,7 +14284,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -16030,7 +14294,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -16040,7 +14304,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -16052,17 +14316,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Edwin Leandro Pinzón Castelblanco</t>
+          <t>Franklin Smith Pulido Larrota</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>edwin.pinzon03@uptc.edu.co</t>
+          <t>franklin.pulido@uptc.edu.co</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Comunicaciones II</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -16082,7 +14346,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -16097,12 +14361,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -16114,12 +14378,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Franklin Smith Pulido Larrota</t>
+          <t>Héctor José Puentes Ruiz</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>franklin.pulido@uptc.edu.co</t>
+          <t>hector.puentes01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -16144,7 +14408,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -16164,7 +14428,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -16176,17 +14440,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Héctor José Puentes Ruiz</t>
+          <t>Henry Alexander Camargo Cruz</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>hector.puentes01@uptc.edu.co</t>
+          <t>henry.camargo@uptc.edu.co</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Comunicaciones II</t>
+          <t>Telemática</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -16231,19 +14495,19 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Henry Alexander Camargo Cruz</t>
+          <t>Jesus David Barrera Tibaduiza</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>henry.camargo@uptc.edu.co</t>
+          <t>jesus.barrera01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -16263,27 +14527,27 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -16293,24 +14557,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Jesus David Barrera Tibaduiza</t>
+          <t>Joel Mauricio Chaparro Fuentes</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jesus.barrera01@uptc.edu.co</t>
+          <t>joel.chaparro@uptc.edu.co</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Telemática</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -16325,27 +14589,27 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -16362,12 +14626,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Joel Mauricio Chaparro Fuentes</t>
+          <t>Jonathan David Coronado Peña</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>joel.chaparro@uptc.edu.co</t>
+          <t>jonathan.coronado@uptc.edu.co</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -16412,7 +14676,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -16424,17 +14688,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jonathan David Coronado Peña</t>
+          <t>Jordin Enrique Vanegas Melo</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jonathan.coronado@uptc.edu.co</t>
+          <t>jordin.vanegas@uptc.edu.co</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Telemática</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -16486,12 +14750,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jordin Enrique Vanegas Melo</t>
+          <t>Jose Arquimedes Alba Cupa</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>jordin.vanegas@uptc.edu.co</t>
+          <t>jose.alba@uptc.edu.co</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -16506,7 +14770,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -16516,7 +14780,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -16526,7 +14790,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -16536,7 +14800,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -16548,17 +14812,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jose Arquimedes Alba Cupa</t>
+          <t>Juan Diego Paez Rodriguez</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jose.alba@uptc.edu.co</t>
+          <t>juan.paez02@uptc.edu.co</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Telemática</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -16568,7 +14832,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -16578,7 +14842,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -16588,7 +14852,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -16598,7 +14862,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -16610,17 +14874,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Juan Diego Paez Rodriguez</t>
+          <t>Juan Diego Ruiz Chaparro</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>juan.paez02@uptc.edu.co</t>
+          <t>juan.ruiz08@uptc.edu.co</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Comunicaciones II</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -16635,7 +14899,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -16655,7 +14919,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -16672,22 +14936,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Juan Diego Ruiz Chaparro</t>
+          <t>Julián David Cely Forero</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>juan.ruiz08@uptc.edu.co</t>
+          <t>julian.cely@uptc.edu.co</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Comunicaciones II</t>
+          <t>Telemática</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -16697,7 +14961,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -16717,12 +14981,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -16734,22 +14998,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Julián David Cely Forero</t>
+          <t>Kevin Raul Gonzalez Castellanos</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>julian.cely@uptc.edu.co</t>
+          <t>kevin.gonzalez01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Telemática</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -16764,7 +15028,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -16779,12 +15043,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -16796,12 +15060,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Kevin Raul Gonzalez Castellanos</t>
+          <t>Liceth Dayana Páez Jiménez</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>kevin.gonzalez01@uptc.edu.co</t>
+          <t>liceth.paez@uptc.edu.co</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -16821,7 +15085,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -16831,7 +15095,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -16858,12 +15122,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Liceth Dayana Páez Jiménez</t>
+          <t>Lizeth Tatiana Martínez Gil</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>liceth.paez@uptc.edu.co</t>
+          <t>lizeth.martinez06@uptc.edu.co</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -16873,7 +15137,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -16883,17 +15147,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -16903,12 +15167,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -16920,12 +15184,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Lizeth Tatiana Martínez Gil</t>
+          <t>María Alejandra Bareño Ariza</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>lizeth.martinez06@uptc.edu.co</t>
+          <t>maria.bareno01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -16935,7 +15199,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -16950,7 +15214,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -16982,12 +15246,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>María Alejandra Bareño Ariza</t>
+          <t>Maria Paula Satizabal Siatama</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>maria.bareno01@uptc.edu.co</t>
+          <t>maria.satizabal@uptc.edu.co</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -17012,7 +15276,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -17044,12 +15308,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Maria Paula Satizabal Siatama</t>
+          <t>Santiago Andres Arias Reyes</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>maria.satizabal@uptc.edu.co</t>
+          <t>santiago.arias01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -17094,7 +15358,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -17106,17 +15370,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Santiago Andres Arias Reyes</t>
+          <t>Santiago Felipe Camargo Peña</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>santiago.arias01@uptc.edu.co</t>
+          <t>santiago.camargo01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Comunicaciones II</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -17136,7 +15400,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -17151,7 +15415,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -17168,17 +15432,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Santiago Felipe Camargo Peña</t>
+          <t>Sebastián Leonardo Córdoba Cuadros</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>santiago.camargo01@uptc.edu.co</t>
+          <t>sebastian.cordoba@uptc.edu.co</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Comunicaciones II</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -17198,7 +15462,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -17230,17 +15494,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sebastián Leonardo Córdoba Cuadros</t>
+          <t>Sebastián Camilo Fagua Lancheros</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>sebastian.cordoba@uptc.edu.co</t>
+          <t>sebastian.fagua@uptc.edu.co</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Telemática</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -17260,7 +15524,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -17275,7 +15539,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -17292,17 +15556,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sebastián Camilo Fagua Lancheros</t>
+          <t>Sergio Camilo Muñoz Acosta</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>sebastian.fagua@uptc.edu.co</t>
+          <t>sergio.munoz@uptc.edu.co</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Telemática</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -17322,7 +15586,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -17354,17 +15618,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sergio Camilo Muñoz Acosta</t>
+          <t>Wilson Camilo López Suárez</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>sergio.munoz@uptc.edu.co</t>
+          <t>wilson.lopez02@uptc.edu.co</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Telemática</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -17374,7 +15638,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -17384,27 +15648,27 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -17416,12 +15680,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Wilson Camilo López Suárez</t>
+          <t>Wilson Felipe Pacheco Rios</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>wilson.lopez02@uptc.edu.co</t>
+          <t>wilson.pacheco@uptc.edu.co</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -17436,7 +15700,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -17446,27 +15710,27 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -17478,17 +15742,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Wilson Felipe Pacheco Rios</t>
+          <t>Yefferson Arley Nuñez Camacho</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>wilson.pacheco@uptc.edu.co</t>
+          <t>yefferson.nunez@uptc.edu.co</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Telemática</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -17528,7 +15792,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -17540,27 +15804,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Yefferson Arley Nuñez Camacho</t>
+          <t>Cristhian Moreno</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>yefferson.nunez@uptc.edu.co</t>
+          <t>cristhian.moreno@uptc.edu.co</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Comunicaciones</t>
+          <t>Telemática</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -17590,24 +15854,24 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Cristhian Moreno</t>
+          <t>Juan Mora</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>cristhian.moreno@uptc.edu.co</t>
+          <t>juan.mora02@uptc.edu.co</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -17637,7 +15901,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -17652,7 +15916,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -17664,12 +15928,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Juan Mora</t>
+          <t>Anderson Carvajal</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>juan.mora02@uptc.edu.co</t>
+          <t>anderson.carvajal@uptc.edu.co</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -17684,12 +15948,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -17699,17 +15963,17 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -17719,19 +15983,19 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Anderson Carvajal</t>
+          <t>Luis Pulido</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>anderson.carvajal@uptc.edu.co</t>
+          <t>luis.pulido01@uptc.edu.co</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -17746,7 +16010,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -17756,7 +16020,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -17766,12 +16030,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>si</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -17788,12 +16052,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Luis Pulido</t>
+          <t>Diego Alejandro Salcedo Tolosa</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>luis.pulido01@uptc.edu.co</t>
+          <t>diego.salcedo02@uptc.edu.co</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -17823,87 +16087,25 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Diego Alejandro Salcedo Tolosa</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>diego.salcedo02@uptc.edu.co</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Telemática</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
         <is>
           <t>no</t>
         </is>

--- a/ETL/clean_data/proyecto_asistencia.xlsx
+++ b/ETL/clean_data/proyecto_asistencia.xlsx
@@ -463,47 +463,47 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>evento_1</t>
+          <t>fecha 1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>evento_2</t>
+          <t>fecha 2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>evento_3</t>
+          <t>fecha 3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>evento_4</t>
+          <t>fecha 4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>evento_5</t>
+          <t>fecha 5</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>evento_6</t>
+          <t>fecha 6</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>evento_7</t>
+          <t>fecha 7</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>evento_8</t>
+          <t>fecha 8</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>evento_9</t>
+          <t>fecha 9</t>
         </is>
       </c>
     </row>
@@ -4698,47 +4698,47 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>evento_1</t>
+          <t>fecha 1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>evento_2</t>
+          <t>fecha 2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>evento_3</t>
+          <t>fecha 3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>evento_4</t>
+          <t>fecha 4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>evento_5</t>
+          <t>fecha 5</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>evento_6</t>
+          <t>fecha 6</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>evento_7</t>
+          <t>fecha 7</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>evento_8</t>
+          <t>fecha 8</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>evento_9</t>
+          <t>fecha 9</t>
         </is>
       </c>
     </row>
@@ -5213,47 +5213,47 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>evento_1</t>
+          <t>fecha 1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>evento_2</t>
+          <t>fecha 2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>evento_3</t>
+          <t>fecha 3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>evento_4</t>
+          <t>fecha 4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>evento_5</t>
+          <t>fecha 5</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>evento_6</t>
+          <t>fecha 6</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>evento_7</t>
+          <t>fecha 7</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>evento_8</t>
+          <t>fecha 8</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>evento_9</t>
+          <t>fecha 9</t>
         </is>
       </c>
     </row>
@@ -6410,47 +6410,47 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>evento_1</t>
+          <t>fecha 1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>evento_2</t>
+          <t>fecha 2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>evento_3</t>
+          <t>fecha 3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>evento_4</t>
+          <t>fecha 4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>evento_5</t>
+          <t>fecha 5</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>evento_6</t>
+          <t>fecha 6</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>evento_7</t>
+          <t>fecha 7</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>evento_8</t>
+          <t>fecha 8</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>evento_9</t>
+          <t>fecha 9</t>
         </is>
       </c>
     </row>
@@ -7669,47 +7669,47 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>evento_1</t>
+          <t>fecha 1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>evento_2</t>
+          <t>fecha 2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>evento_3</t>
+          <t>fecha 3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>evento_4</t>
+          <t>fecha 4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>evento_5</t>
+          <t>fecha 5</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>evento_6</t>
+          <t>fecha 6</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>evento_7</t>
+          <t>fecha 7</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>evento_8</t>
+          <t>fecha 8</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>evento_9</t>
+          <t>fecha 9</t>
         </is>
       </c>
     </row>
@@ -8618,47 +8618,47 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>evento_1</t>
+          <t>fecha 1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>evento_2</t>
+          <t>fecha 2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>evento_3</t>
+          <t>fecha 3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>evento_4</t>
+          <t>fecha 4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>evento_5</t>
+          <t>fecha 5</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>evento_6</t>
+          <t>fecha 6</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>evento_7</t>
+          <t>fecha 7</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>evento_8</t>
+          <t>fecha 8</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>evento_9</t>
+          <t>fecha 9</t>
         </is>
       </c>
     </row>
@@ -9257,47 +9257,47 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>evento_1</t>
+          <t>fecha 1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>evento_2</t>
+          <t>fecha 2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>evento_3</t>
+          <t>fecha 3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>evento_4</t>
+          <t>fecha 4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>evento_5</t>
+          <t>fecha 5</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>evento_6</t>
+          <t>fecha 6</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>evento_7</t>
+          <t>fecha 7</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>evento_8</t>
+          <t>fecha 8</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>evento_9</t>
+          <t>fecha 9</t>
         </is>
       </c>
     </row>
@@ -10950,47 +10950,47 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>evento_1</t>
+          <t>fecha 1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>evento_2</t>
+          <t>fecha 2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>evento_3</t>
+          <t>fecha 3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>evento_4</t>
+          <t>fecha 4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>evento_5</t>
+          <t>fecha 5</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>evento_6</t>
+          <t>fecha 6</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>evento_7</t>
+          <t>fecha 7</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>evento_8</t>
+          <t>fecha 8</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>evento_9</t>
+          <t>fecha 9</t>
         </is>
       </c>
     </row>
@@ -12705,47 +12705,47 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>evento_1</t>
+          <t>fecha 1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>evento_2</t>
+          <t>fecha 2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>evento_3</t>
+          <t>fecha 3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>evento_4</t>
+          <t>fecha 4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>evento_5</t>
+          <t>fecha 5</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>evento_6</t>
+          <t>fecha 6</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>evento_7</t>
+          <t>fecha 7</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>evento_8</t>
+          <t>fecha 8</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>evento_9</t>
+          <t>fecha 9</t>
         </is>
       </c>
     </row>
@@ -12910,47 +12910,47 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>evento_1</t>
+          <t>fecha 1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>evento_2</t>
+          <t>fecha 2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>evento_3</t>
+          <t>fecha 3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>evento_4</t>
+          <t>fecha 4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>evento_5</t>
+          <t>fecha 5</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>evento_6</t>
+          <t>fecha 6</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>evento_7</t>
+          <t>fecha 7</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>evento_8</t>
+          <t>fecha 8</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>evento_9</t>
+          <t>fecha 9</t>
         </is>
       </c>
     </row>
@@ -13053,47 +13053,47 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>evento_1</t>
+          <t>fecha 1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>evento_2</t>
+          <t>fecha 2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>evento_3</t>
+          <t>fecha 3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>evento_4</t>
+          <t>fecha 4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>evento_5</t>
+          <t>fecha 5</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>evento_6</t>
+          <t>fecha 6</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>evento_7</t>
+          <t>fecha 7</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>evento_8</t>
+          <t>fecha 8</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>evento_9</t>
+          <t>fecha 9</t>
         </is>
       </c>
     </row>
@@ -13196,47 +13196,47 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>evento_1</t>
+          <t>fecha 1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>evento_2</t>
+          <t>fecha 2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>evento_3</t>
+          <t>fecha 3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>evento_4</t>
+          <t>fecha 4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>evento_5</t>
+          <t>fecha 5</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>evento_6</t>
+          <t>fecha 6</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>evento_7</t>
+          <t>fecha 7</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>evento_8</t>
+          <t>fecha 8</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>evento_9</t>
+          <t>fecha 9</t>
         </is>
       </c>
     </row>
@@ -13339,47 +13339,47 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>evento_1</t>
+          <t>fecha 1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>evento_2</t>
+          <t>fecha 2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>evento_3</t>
+          <t>fecha 3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>evento_4</t>
+          <t>fecha 4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>evento_5</t>
+          <t>fecha 5</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>evento_6</t>
+          <t>fecha 6</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>evento_7</t>
+          <t>fecha 7</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>evento_8</t>
+          <t>fecha 8</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>evento_9</t>
+          <t>fecha 9</t>
         </is>
       </c>
     </row>

--- a/ETL/clean_data/proyecto_asistencia.xlsx
+++ b/ETL/clean_data/proyecto_asistencia.xlsx
@@ -20,6 +20,7 @@
     <sheet name="Comunicaciones Elec" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Telemática" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Profesionales" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="No Registrados" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8586,6 +8587,1349 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Apellido</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Correo electrónico</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Hora a la que se unió</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Hora a la que salió</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>NombreCompleto</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>duración</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Javier</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ballesteros</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>javier.ballesteros@uptc.edu.co</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:02:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:30:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Javier Ballesteros</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mónica</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Quevedo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>moni**********@***.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-09-06 09:46:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:29:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Mónica Quevedo</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cristian David</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Saenz Gamboa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>cristian.saenz01@uptc.edu.co</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:05:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2023-09-06 12:02:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cristian David Saenz Gamboa</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Telematics</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Uptc</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>telematics@uptc.edu.co</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:03:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2023-09-06 12:08:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Telematics Uptc</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brayan</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Borda</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>brayan.borda01@uptc.edu.co</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:02:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2023-09-06 12:04:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Brayan Borda01</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Larotta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>tele*****************@***.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:04:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:40:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lorena Larotta</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Santigo</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rodriguez Villarruel</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>sant*****************@***.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:02:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:59:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Santigo Rodriguez Villarruel</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Norbey</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>norbey.rojas@uptc.edu.co</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:03:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2023-09-06 12:04:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Norbey Rojas</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cristian David</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Saenz Gamboa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>cristian.saenz01@uptc.edu.co</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:17:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:58:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cristian David Saenz Gamboa</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Telematics</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Uptc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>telematics@uptc.edu.co</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:03:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2023-09-06 12:04:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Telematics Uptc</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:02:00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:58:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>+57 311 *****26</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Adquisiciones</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Biblioteca</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>adquisiciones.biblioteca@uptc.edu.co</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023-09-06 09:57:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2023-09-06 09:57:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Adquisiciones Biblioteca</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Filyp</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Garoch</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>inge********@***.com</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:03:00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:47:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Filyp Garoch</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mónica</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Quevedo</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>moni**********@***.com</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:03:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:53:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mónica Quevedo</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Norbey</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>norbey.rojas@uptc.edu.co</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:09:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:53:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Norbey Rojas</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Cristian David</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Saenz Gamboa</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>cristian.saenz01@uptc.edu.co</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:09:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:39:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Cristian David Saenz Gamboa</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Filyp</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Garoch</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>inge********@***.com</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:10:00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:11:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Filyp Garoch</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Mónica</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Quevedo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>moni**********@***.com</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023-09-06 09:52:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:12:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mónica Quevedo</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Santigo</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Rodriguez Villarruel</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sant*****************@***.com</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:07:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:12:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Santigo Rodriguez Villarruel</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Norbey</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>norbey.rojas@uptc.edu.co</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:59:00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:12:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Norbey Rojas</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cristian David</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Saenz Gamboa</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>cristian.saenz01@uptc.edu.co</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:08:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:12:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Cristian David Saenz Gamboa</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sandra</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>García</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>sand*********@***.com</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023-09-06 09:59:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:56:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sandra García</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Medina Castro</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>orlando.medina@uptc.edu.co</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:04:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:57:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Orlando Medina Castro</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cristian David</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Saenz Gamboa</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>cristian.saenz01@uptc.edu.co</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:09:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:17:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Cristian David Saenz Gamboa</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Enciso</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>aenc***@***.com</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023-09-06 09:58:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:55:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Alejandro Enciso</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Medina Castro</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>orlando.medina@uptc.edu.co</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:10:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:56:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Orlando Medina Castro</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Norbey</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Rojas</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>norbey.rojas@uptc.edu.co</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:57:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2023-09-06 12:00:00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Norbey Rojas</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Cristian David</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Saenz Gamboa</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>cristian.saenz01@uptc.edu.co</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:31:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:52:00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Cristian David Saenz Gamboa</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:20:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:21:00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>+57 311 *****26</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Medina Castro</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>orlando.medina@uptc.edu.co</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:24:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:47:00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Orlando Medina Castro</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mónica</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Quevedo</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>moni**********@***.com</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:30:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:47:00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Mónica Quevedo</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Quevedo Reyes</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>mque******@***.com</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023-09-06 09:54:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:25:00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Monica Quevedo Reyes</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sandra</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>García</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>sand*********@***.com</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:18:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:51:00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sandra García</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Medina Castro</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>orlando.medina@uptc.edu.co</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-09-06 09:58:00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:51:00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Orlando Medina Castro</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mónica</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Quevedo</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>moni**********@***.com</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-09-06 09:59:00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:51:00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Mónica Quevedo</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Edgar David</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Giraldo Valencia</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>edga*********@***.com</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-09-06 09:55:00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:26:00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Edgar David Giraldo Valencia</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Medina Castro</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>orlando.medina@uptc.edu.co</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-09-06 10:09:00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2023-09-06 11:11:00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Orlando Medina Castro</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
